--- a/xls/C-场景.xlsx
+++ b/xls/C-场景.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{694A99E6-E6EA-4AC5-8503-3FE3904D7758}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="@场景#Scene" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,13 +53,17 @@
   </si>
   <si>
     <t>Scene1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainScene</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -401,11 +404,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -463,6 +466,17 @@
         <v>1001</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>100102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1002</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xls/C-场景.xlsx
+++ b/xls/C-场景.xlsx
@@ -1,79 +1,122 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UEnglishLearning\Program\Tools\PythonExcelToConfig\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9E722D-6836-4F3C-87AA-189B190480C2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="5175" yWindow="2685" windowWidth="17055" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="@场景#Scene" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>AssetName</t>
+  </si>
+  <si>
+    <t>BgmId</t>
+  </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>唯一标识</t>
+  </si>
+  <si>
+    <t>资源名</t>
+  </si>
+  <si>
+    <t>背景音乐id</t>
+  </si>
+  <si>
+    <t>Res/Scenes/LoginScene</t>
+  </si>
+  <si>
+    <t>Res/Scenes/MainScene</t>
+  </si>
+  <si>
+    <t>UGame/PlayPiano/Scenes/PlayPianoScene</t>
+  </si>
+  <si>
+    <t>UGame/PlayLook/Scenes/PlayLookScene</t>
+  </si>
+  <si>
+    <t>UGame/PlayAssemble/Scene/PlayAssembleScene</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
+    <t>UGame/PlayVideo/Scene/PlayVideoScene</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>唯一标识</t>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Id</t>
+    <t>UGame/PlayMatchUp/Scenes/PlayMatchUpScene</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>资源名</t>
+    <t>UGame/PlayMole/Scenes/PlayMoleScene</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AssetName</t>
-  </si>
-  <si>
-    <t>BgmId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景音乐id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scene1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MainScene</t>
+    <t>UGame/PlayColorIt/Scenes/PlayColorItScene</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -89,7 +132,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -104,16 +147,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -121,10 +164,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -185,7 +229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -220,7 +264,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -395,26 +439,21 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="2" max="2" width="42.5" customWidth="1"/>
     <col min="3" max="3" width="21.75" customWidth="1"/>
     <col min="4" max="4" width="27.25" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
@@ -424,32 +463,32 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -463,7 +502,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>1001</v>
+        <v>100101</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -474,12 +513,89 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>1002</v>
+        <v>100101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>100103</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>100104</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>100104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>100105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>100105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>100106</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>100107</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>100105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>100108</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>100102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>100109</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>100103</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>